--- a/data/trans_bre/P21D_6_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P21D_6_R-Edad-trans_bre.xlsx
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-0.1548835146265992</v>
+        <v>-0.1548835146265991</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.1880783433618648</v>
+        <v>-0.1880783433618647</v>
       </c>
     </row>
     <row r="8">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.201859340885502</v>
+        <v>-2.617659387443872</v>
       </c>
       <c r="D8" s="6" t="inlineStr"/>
     </row>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.3541853871509</v>
+        <v>1.349445318715183</v>
       </c>
       <c r="D9" s="6" t="inlineStr"/>
     </row>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.45850881616326</v>
+        <v>0.2859419032682935</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
     </row>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.439363664234625</v>
+        <v>2.635756070966937</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-0.2192341628225677</v>
+        <v>-0.2192341628225679</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.2325328369617527</v>
+        <v>-0.2325328369617529</v>
       </c>
     </row>
     <row r="14">
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.760292500907984</v>
+        <v>-1.651031417681679</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
     </row>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8907420883677716</v>
+        <v>0.7951992858665041</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.1989478760598996</v>
+        <v>-0.2456558992078381</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.5141905105105165</v>
+        <v>-0.4493307957553207</v>
       </c>
     </row>
     <row r="18">
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.752361364275727</v>
+        <v>3.632722927796856</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
     </row>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>1.862638874316343</v>
+        <v>1.862638874316342</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>3.48198227163568</v>
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.1479440225548974</v>
+        <v>-0.0595406457769721</v>
       </c>
       <c r="D20" s="6" t="inlineStr"/>
     </row>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.799560756502955</v>
+        <v>3.809814114532546</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
     </row>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.4874577101248885</v>
+        <v>0.4874577101248886</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>1.078129326484005</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.904328449093425</v>
+        <v>-0.899626109015059</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
     </row>
@@ -828,7 +828,7 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.876425717958794</v>
+        <v>1.916520826510526</v>
       </c>
       <c r="D24" s="6" t="inlineStr"/>
     </row>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.6836109194473502</v>
+        <v>0.6836109194473506</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>1.240502289050305</v>
+        <v>1.240502289050306</v>
       </c>
     </row>
     <row r="26">
@@ -858,10 +858,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03936224825385005</v>
+        <v>-0.001819667787980285</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.05931682152360329</v>
+        <v>-0.07686309162610212</v>
       </c>
     </row>
     <row r="27">
@@ -872,10 +872,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.273069630961189</v>
+        <v>1.273222809116945</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5.119718985803885</v>
+        <v>4.445862623522665</v>
       </c>
     </row>
     <row r="28">
